--- a/Output/Media/sc_perox.xlsx
+++ b/Output/Media/sc_perox.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="348">
   <si>
     <t>Carbon source reaction</t>
   </si>
@@ -26,6 +26,1038 @@
   </si>
   <si>
     <t>Metabolite formula</t>
+  </si>
+  <si>
+    <t>r_2189</t>
+  </si>
+  <si>
+    <t>oleate exchange</t>
+  </si>
+  <si>
+    <t>C18H33O2</t>
+  </si>
+  <si>
+    <t>r_2055</t>
+  </si>
+  <si>
+    <t>stearate exchange</t>
+  </si>
+  <si>
+    <t>C18H35O2</t>
+  </si>
+  <si>
+    <t>r_1994</t>
+  </si>
+  <si>
+    <t>palmitoleate exchange</t>
+  </si>
+  <si>
+    <t>C16H29O2</t>
+  </si>
+  <si>
+    <t>r_1993</t>
+  </si>
+  <si>
+    <t>palmitate exchange</t>
+  </si>
+  <si>
+    <t>C16H31O2</t>
+  </si>
+  <si>
+    <t>r_2193</t>
+  </si>
+  <si>
+    <t>myristate exchange</t>
+  </si>
+  <si>
+    <t>C14H27O2</t>
+  </si>
+  <si>
+    <t>r_1916</t>
+  </si>
+  <si>
+    <t>laurate exchange</t>
+  </si>
+  <si>
+    <t>C12H23O2</t>
+  </si>
+  <si>
+    <t>r_4503</t>
+  </si>
+  <si>
+    <t>alpha-maltotriose exchange</t>
+  </si>
+  <si>
+    <t>C18H32O16</t>
+  </si>
+  <si>
+    <t>r_4645</t>
+  </si>
+  <si>
+    <t>ethyl octanoate exchange</t>
+  </si>
+  <si>
+    <t>C10H20O2</t>
+  </si>
+  <si>
+    <t>r_1727</t>
+  </si>
+  <si>
+    <t>decanoate exchange</t>
+  </si>
+  <si>
+    <t>C10H19O2</t>
+  </si>
+  <si>
+    <t>r_1806</t>
+  </si>
+  <si>
+    <t>glutathione disulfide exchange</t>
+  </si>
+  <si>
+    <t>C20H30N6O12S2</t>
+  </si>
+  <si>
+    <t>r_1984</t>
+  </si>
+  <si>
+    <t>octanoate exchange</t>
+  </si>
+  <si>
+    <t>C8H15O2</t>
+  </si>
+  <si>
+    <t>r_4498</t>
+  </si>
+  <si>
+    <t>6-O-alpha-D-glucopyranosyl-D-fructofuranose exchange</t>
+  </si>
+  <si>
+    <t>C12H22O11</t>
+  </si>
+  <si>
+    <t>r_1931</t>
+  </si>
+  <si>
+    <t>maltose exchange</t>
+  </si>
+  <si>
+    <t>r_4501</t>
+  </si>
+  <si>
+    <t>turanose exchange</t>
+  </si>
+  <si>
+    <t>r_2058</t>
+  </si>
+  <si>
+    <t>sucrose exchange</t>
+  </si>
+  <si>
+    <t>r_1650</t>
+  </si>
+  <si>
+    <t>trehalose exchange</t>
+  </si>
+  <si>
+    <t>r_4644</t>
+  </si>
+  <si>
+    <t>ethyl hexanoate exchange</t>
+  </si>
+  <si>
+    <t>C8H16O2</t>
+  </si>
+  <si>
+    <t>r_2028</t>
+  </si>
+  <si>
+    <t>pyridoxine exchange</t>
+  </si>
+  <si>
+    <t>C8H11NO3</t>
+  </si>
+  <si>
+    <t>r_4646</t>
+  </si>
+  <si>
+    <t>ethyl butanoate exchange</t>
+  </si>
+  <si>
+    <t>C6H12O2</t>
+  </si>
+  <si>
+    <t>r_1807</t>
+  </si>
+  <si>
+    <t>glutathione exchange</t>
+  </si>
+  <si>
+    <t>C10H16N3O6S</t>
+  </si>
+  <si>
+    <t>r_4541</t>
+  </si>
+  <si>
+    <t>O(4)-phospho-L-tyrosine exchange</t>
+  </si>
+  <si>
+    <t>C9H10NO6P</t>
+  </si>
+  <si>
+    <t>r_1913</t>
+  </si>
+  <si>
+    <t>L-tyrosine exchange</t>
+  </si>
+  <si>
+    <t>C9H11NO3</t>
+  </si>
+  <si>
+    <t>r_4513</t>
+  </si>
+  <si>
+    <t>Ala-Glu exchange</t>
+  </si>
+  <si>
+    <t>C8H13N2O5</t>
+  </si>
+  <si>
+    <t>r_4508</t>
+  </si>
+  <si>
+    <t>Ala-Gln exchange</t>
+  </si>
+  <si>
+    <t>C8H15N3O4</t>
+  </si>
+  <si>
+    <t>r_1712</t>
+  </si>
+  <si>
+    <t>D-glucitol exchange</t>
+  </si>
+  <si>
+    <t>C6H14O6</t>
+  </si>
+  <si>
+    <t>r_4502</t>
+  </si>
+  <si>
+    <t>D-glucose 6-phosphate exchange</t>
+  </si>
+  <si>
+    <t>C6H11O9P</t>
+  </si>
+  <si>
+    <t>r_4539</t>
+  </si>
+  <si>
+    <t>D-mannose 6-phosphate exchange</t>
+  </si>
+  <si>
+    <t>r_1651</t>
+  </si>
+  <si>
+    <t>alpha-D-glucosamine 6-phosphate exchange</t>
+  </si>
+  <si>
+    <t>C6H13NO8P</t>
+  </si>
+  <si>
+    <t>r_4547</t>
+  </si>
+  <si>
+    <t>D-mannose 1-phosphate exchange</t>
+  </si>
+  <si>
+    <t>r_4504</t>
+  </si>
+  <si>
+    <t>D-glucose 1-phosphate exchange</t>
+  </si>
+  <si>
+    <t>r_4517</t>
+  </si>
+  <si>
+    <t>Ala-Thr exchange</t>
+  </si>
+  <si>
+    <t>C7H14N2O4</t>
+  </si>
+  <si>
+    <t>r_2043</t>
+  </si>
+  <si>
+    <t>S-adenosyl-L-methionine exchange</t>
+  </si>
+  <si>
+    <t>C15H23N6O5S</t>
+  </si>
+  <si>
+    <t>r_4500</t>
+  </si>
+  <si>
+    <t>D-tagatose exchange</t>
+  </si>
+  <si>
+    <t>C6H12O6</t>
+  </si>
+  <si>
+    <t>r_1714</t>
+  </si>
+  <si>
+    <t>D-glucose exchange</t>
+  </si>
+  <si>
+    <t>r_1542</t>
+  </si>
+  <si>
+    <t>(1-&gt;3)-beta-D-glucan exchange</t>
+  </si>
+  <si>
+    <t>C6H10O5</t>
+  </si>
+  <si>
+    <t>r_4506</t>
+  </si>
+  <si>
+    <t>D-Glucosamine exchange</t>
+  </si>
+  <si>
+    <t>C6H14NO5</t>
+  </si>
+  <si>
+    <t>r_4556</t>
+  </si>
+  <si>
+    <t>N-acetyl-L-glutamate exchange</t>
+  </si>
+  <si>
+    <t>C7H9NO5</t>
+  </si>
+  <si>
+    <t>r_4043</t>
+  </si>
+  <si>
+    <t>raffinose exchange</t>
+  </si>
+  <si>
+    <t>r_1709</t>
+  </si>
+  <si>
+    <t>D-fructose exchange</t>
+  </si>
+  <si>
+    <t>r_1715</t>
+  </si>
+  <si>
+    <t>D-mannose exchange</t>
+  </si>
+  <si>
+    <t>r_4505</t>
+  </si>
+  <si>
+    <t>methyl alpha-D-glucopyranoside exchange</t>
+  </si>
+  <si>
+    <t>C7H14O6</t>
+  </si>
+  <si>
+    <t>r_1710</t>
+  </si>
+  <si>
+    <t>D-galactose exchange</t>
+  </si>
+  <si>
+    <t>r_4538</t>
+  </si>
+  <si>
+    <t>6-phospho-D-gluconate exchange</t>
+  </si>
+  <si>
+    <t>C6H10O10P</t>
+  </si>
+  <si>
+    <t>r_4515</t>
+  </si>
+  <si>
+    <t>Ala-Asp exchange</t>
+  </si>
+  <si>
+    <t>C7H11N2O5</t>
+  </si>
+  <si>
+    <t>r_4510</t>
+  </si>
+  <si>
+    <t>Gly-Gln exchange</t>
+  </si>
+  <si>
+    <t>C7H13N3O4</t>
+  </si>
+  <si>
+    <t>r_4516</t>
+  </si>
+  <si>
+    <t>Gly-Glu exchange</t>
+  </si>
+  <si>
+    <t>r_2104</t>
+  </si>
+  <si>
+    <t>xylitol exchange</t>
+  </si>
+  <si>
+    <t>C5H12O5</t>
+  </si>
+  <si>
+    <t>r_1643</t>
+  </si>
+  <si>
+    <t>adenosine exchange</t>
+  </si>
+  <si>
+    <t>C10H13N5O4</t>
+  </si>
+  <si>
+    <t>r_4534</t>
+  </si>
+  <si>
+    <t>guanosine 2'-monophosphate exchange</t>
+  </si>
+  <si>
+    <t>C10H12N5O8P</t>
+  </si>
+  <si>
+    <t>r_4548</t>
+  </si>
+  <si>
+    <t>AMP exchange</t>
+  </si>
+  <si>
+    <t>C10H12N5O7P</t>
+  </si>
+  <si>
+    <t>r_4544</t>
+  </si>
+  <si>
+    <t>adenosine 2'-phosphate exchange</t>
+  </si>
+  <si>
+    <t>r_1641</t>
+  </si>
+  <si>
+    <t>adenosine 3',5'-bismonophosphate exchange</t>
+  </si>
+  <si>
+    <t>C10H11N5O10P2</t>
+  </si>
+  <si>
+    <t>r_1847</t>
+  </si>
+  <si>
+    <t>inosine exchange</t>
+  </si>
+  <si>
+    <t>C10H12N4O5</t>
+  </si>
+  <si>
+    <t>r_4524</t>
+  </si>
+  <si>
+    <t>GMP exchange</t>
+  </si>
+  <si>
+    <t>r_4545</t>
+  </si>
+  <si>
+    <t>3'-AMP exchange</t>
+  </si>
+  <si>
+    <t>r_1820</t>
+  </si>
+  <si>
+    <t>guanosine exchange</t>
+  </si>
+  <si>
+    <t>C10H13N5O5</t>
+  </si>
+  <si>
+    <t>r_4536</t>
+  </si>
+  <si>
+    <t>3'-GMP exchange</t>
+  </si>
+  <si>
+    <t>r_4540</t>
+  </si>
+  <si>
+    <t>2',3'-cyclic GMP exchange</t>
+  </si>
+  <si>
+    <t>C10H11N5O7P</t>
+  </si>
+  <si>
+    <t>r_4546</t>
+  </si>
+  <si>
+    <t>2',3'-cyclic AMP exchange</t>
+  </si>
+  <si>
+    <t>C10H11N5O6P</t>
+  </si>
+  <si>
+    <t>r_1875</t>
+  </si>
+  <si>
+    <t>L-arabinitol exchange</t>
+  </si>
+  <si>
+    <t>r_4499</t>
+  </si>
+  <si>
+    <t>5-dehydro-D-gluconate exchange</t>
+  </si>
+  <si>
+    <t>C6H9O7</t>
+  </si>
+  <si>
+    <t>r_1716</t>
+  </si>
+  <si>
+    <t>D-ribose exchange</t>
+  </si>
+  <si>
+    <t>C5H10O5</t>
+  </si>
+  <si>
+    <t>r_1706</t>
+  </si>
+  <si>
+    <t>D-arabinose exchange</t>
+  </si>
+  <si>
+    <t>r_1718</t>
+  </si>
+  <si>
+    <t>D-xylose exchange</t>
+  </si>
+  <si>
+    <t>r_1878</t>
+  </si>
+  <si>
+    <t>L-arabinose exchange</t>
+  </si>
+  <si>
+    <t>r_4530</t>
+  </si>
+  <si>
+    <t>N(omega)-phospho-L-arginine exchange</t>
+  </si>
+  <si>
+    <t>C6H14N4O5P</t>
+  </si>
+  <si>
+    <t>r_1904</t>
+  </si>
+  <si>
+    <t>L-proline exchange</t>
+  </si>
+  <si>
+    <t>C5H9NO2</t>
+  </si>
+  <si>
+    <t>r_4552</t>
+  </si>
+  <si>
+    <t>N-acetyl-L-cysteine exchange</t>
+  </si>
+  <si>
+    <t>C5H8NO3S</t>
+  </si>
+  <si>
+    <t>r_1879</t>
+  </si>
+  <si>
+    <t>L-arginine exchange</t>
+  </si>
+  <si>
+    <t>C6H15N4O2</t>
+  </si>
+  <si>
+    <t>r_1987</t>
+  </si>
+  <si>
+    <t>ornithine exchange</t>
+  </si>
+  <si>
+    <t>C5H13N2O2</t>
+  </si>
+  <si>
+    <t>r_4512</t>
+  </si>
+  <si>
+    <t>Gly-Asn exchange</t>
+  </si>
+  <si>
+    <t>C6H11N3O4</t>
+  </si>
+  <si>
+    <t>r_1687</t>
+  </si>
+  <si>
+    <t>citrate exchange</t>
+  </si>
+  <si>
+    <t>C6H5O7</t>
+  </si>
+  <si>
+    <t>r_4496</t>
+  </si>
+  <si>
+    <t>Ala-Gly exchange</t>
+  </si>
+  <si>
+    <t>C5H10N2O3</t>
+  </si>
+  <si>
+    <t>r_1889</t>
+  </si>
+  <si>
+    <t>L-glutamate exchange</t>
+  </si>
+  <si>
+    <t>C5H8NO4</t>
+  </si>
+  <si>
+    <t>r_1891</t>
+  </si>
+  <si>
+    <t>L-glutamine exchange</t>
+  </si>
+  <si>
+    <t>r_1800</t>
+  </si>
+  <si>
+    <t>gamma-aminobutyrate exchange</t>
+  </si>
+  <si>
+    <t>C4H9NO2</t>
+  </si>
+  <si>
+    <t>r_4519</t>
+  </si>
+  <si>
+    <t>L-citrulline exchange</t>
+  </si>
+  <si>
+    <t>C6H13N3O3</t>
+  </si>
+  <si>
+    <t>r_1586</t>
+  </si>
+  <si>
+    <t>2-oxoglutarate exchange</t>
+  </si>
+  <si>
+    <t>C5H4O5</t>
+  </si>
+  <si>
+    <t>r_1911</t>
+  </si>
+  <si>
+    <t>L-threonine exchange</t>
+  </si>
+  <si>
+    <t>C4H9NO3</t>
+  </si>
+  <si>
+    <t>r_4542</t>
+  </si>
+  <si>
+    <t>O-phospho-L-threonine exchange</t>
+  </si>
+  <si>
+    <t>C4H8NO6P</t>
+  </si>
+  <si>
+    <t>r_2046</t>
+  </si>
+  <si>
+    <t>sn-glycero-3-phosphocholine exchange</t>
+  </si>
+  <si>
+    <t>C8H20NO6P</t>
+  </si>
+  <si>
+    <t>r_4535</t>
+  </si>
+  <si>
+    <t>glycerol 2-phosphate(2-) exchange</t>
+  </si>
+  <si>
+    <t>C3H7O6P</t>
+  </si>
+  <si>
+    <t>r_4522</t>
+  </si>
+  <si>
+    <t>glycerol 1-phosphate exchange</t>
+  </si>
+  <si>
+    <t>r_4555</t>
+  </si>
+  <si>
+    <t>acetoacetate exchange</t>
+  </si>
+  <si>
+    <t>C4H5O3</t>
+  </si>
+  <si>
+    <t>r_1808</t>
+  </si>
+  <si>
+    <t>glycerol exchange</t>
+  </si>
+  <si>
+    <t>C3H8O3</t>
+  </si>
+  <si>
+    <t>r_2052</t>
+  </si>
+  <si>
+    <t>spermine exchange</t>
+  </si>
+  <si>
+    <t>C10H30N4</t>
+  </si>
+  <si>
+    <t>r_1896</t>
+  </si>
+  <si>
+    <t>L-homoserine exchange</t>
+  </si>
+  <si>
+    <t>r_4497</t>
+  </si>
+  <si>
+    <t>3-oxalomalate(3-) exchange</t>
+  </si>
+  <si>
+    <t>C6H3O8</t>
+  </si>
+  <si>
+    <t>r_2056</t>
+  </si>
+  <si>
+    <t>succinate exchange</t>
+  </si>
+  <si>
+    <t>C4H4O4</t>
+  </si>
+  <si>
+    <t>r_4509</t>
+  </si>
+  <si>
+    <t>Ala-Leu exchange</t>
+  </si>
+  <si>
+    <t>C9H18N2O3</t>
+  </si>
+  <si>
+    <t>r_4507</t>
+  </si>
+  <si>
+    <t>glycerone exchange</t>
+  </si>
+  <si>
+    <t>C3H6O3</t>
+  </si>
+  <si>
+    <t>r_1798</t>
+  </si>
+  <si>
+    <t>fumarate exchange</t>
+  </si>
+  <si>
+    <t>C4H2O4</t>
+  </si>
+  <si>
+    <t>r_1881</t>
+  </si>
+  <si>
+    <t>L-aspartate exchange</t>
+  </si>
+  <si>
+    <t>C4H6NO4</t>
+  </si>
+  <si>
+    <t>r_1552</t>
+  </si>
+  <si>
+    <t>(S)-malate exchange</t>
+  </si>
+  <si>
+    <t>C4H4O5</t>
+  </si>
+  <si>
+    <t>r_1880</t>
+  </si>
+  <si>
+    <t>L-asparagine exchange</t>
+  </si>
+  <si>
+    <t>C4H8N2O3</t>
+  </si>
+  <si>
+    <t>r_4518</t>
+  </si>
+  <si>
+    <t>Met-Ala exchange</t>
+  </si>
+  <si>
+    <t>C8H16N2O3S</t>
+  </si>
+  <si>
+    <t>r_1873</t>
+  </si>
+  <si>
+    <t>L-alanine exchange</t>
+  </si>
+  <si>
+    <t>C3H7NO2</t>
+  </si>
+  <si>
+    <t>r_4511</t>
+  </si>
+  <si>
+    <t>Ala-His exchange</t>
+  </si>
+  <si>
+    <t>C9H14N4O3</t>
+  </si>
+  <si>
+    <t>r_4529</t>
+  </si>
+  <si>
+    <t>phosphoenolpyruvate exchange</t>
+  </si>
+  <si>
+    <t>C3H2O6P</t>
+  </si>
+  <si>
+    <t>r_4543</t>
+  </si>
+  <si>
+    <t>3-phosphonato-D-glycerate(3-) exchange</t>
+  </si>
+  <si>
+    <t>C3H4O7P</t>
+  </si>
+  <si>
+    <t>r_4523</t>
+  </si>
+  <si>
+    <t>2-phospho-D-glyceric acid exchange</t>
+  </si>
+  <si>
+    <t>r_1761</t>
+  </si>
+  <si>
+    <t>ethanol exchange</t>
+  </si>
+  <si>
+    <t>C2H6O</t>
+  </si>
+  <si>
+    <t>r_4551</t>
+  </si>
+  <si>
+    <t>3-sulfino-L-alanine exchange</t>
+  </si>
+  <si>
+    <t>C3H6NO4S</t>
+  </si>
+  <si>
+    <t>r_1551</t>
+  </si>
+  <si>
+    <t>(S)-lactate exchange</t>
+  </si>
+  <si>
+    <t>C3H5O3</t>
+  </si>
+  <si>
+    <t>r_1546</t>
+  </si>
+  <si>
+    <t>(R)-lactate exchange</t>
+  </si>
+  <si>
+    <t>r_1989</t>
+  </si>
+  <si>
+    <t>oxaloacetate(2-) exchange</t>
+  </si>
+  <si>
+    <t>C4H2O5</t>
+  </si>
+  <si>
+    <t>r_1906</t>
+  </si>
+  <si>
+    <t>L-serine exchange</t>
+  </si>
+  <si>
+    <t>C3H7NO3</t>
+  </si>
+  <si>
+    <t>r_2033</t>
+  </si>
+  <si>
+    <t>pyruvate exchange</t>
+  </si>
+  <si>
+    <t>C3H3O3</t>
+  </si>
+  <si>
+    <t>r_4526</t>
+  </si>
+  <si>
+    <t>O-phosphonatooxy-D-serine(2-) exchange</t>
+  </si>
+  <si>
+    <t>C3H6NO6P</t>
+  </si>
+  <si>
+    <t>r_4525</t>
+  </si>
+  <si>
+    <t>3-phospho-serine exchange</t>
+  </si>
+  <si>
+    <t>r_4520</t>
+  </si>
+  <si>
+    <t>2-aminobutanoate exchange</t>
+  </si>
+  <si>
+    <t>r_1631</t>
+  </si>
+  <si>
+    <t>acetaldehyde exchange</t>
+  </si>
+  <si>
+    <t>C2H4O</t>
+  </si>
+  <si>
+    <t>r_4553</t>
+  </si>
+  <si>
+    <t>L-cysteate exchange</t>
+  </si>
+  <si>
+    <t>C3H6NO5S</t>
+  </si>
+  <si>
+    <t>r_1883</t>
+  </si>
+  <si>
+    <t>L-cysteine exchange</t>
+  </si>
+  <si>
+    <t>C3H7NO2S</t>
+  </si>
+  <si>
+    <t>r_4658</t>
+  </si>
+  <si>
+    <t>propanal exchange</t>
+  </si>
+  <si>
+    <t>C3H6O</t>
+  </si>
+  <si>
+    <t>r_4514</t>
+  </si>
+  <si>
+    <t>Gly-Met exchange</t>
+  </si>
+  <si>
+    <t>C7H14N2O3S</t>
+  </si>
+  <si>
+    <t>r_4549</t>
+  </si>
+  <si>
+    <t>N(alpha)-acetyl-L-methionine exchange</t>
+  </si>
+  <si>
+    <t>C7H12NO3S</t>
+  </si>
+  <si>
+    <t>r_1634</t>
+  </si>
+  <si>
+    <t>acetate exchange</t>
+  </si>
+  <si>
+    <t>C2H3O2</t>
+  </si>
+  <si>
+    <t>r_1810</t>
+  </si>
+  <si>
+    <t>L-glycine exchange</t>
+  </si>
+  <si>
+    <t>C2H5NO2</t>
+  </si>
+  <si>
+    <t>r_4537</t>
+  </si>
+  <si>
+    <t>2-phosphoglycolate exchange</t>
+  </si>
+  <si>
+    <t>C2H2O6P</t>
+  </si>
+  <si>
+    <t>r_1648</t>
+  </si>
+  <si>
+    <t>allantoate exchange</t>
+  </si>
+  <si>
+    <t>C4H7N4O4</t>
+  </si>
+  <si>
+    <t>r_1649</t>
+  </si>
+  <si>
+    <t>allantoin exchange</t>
+  </si>
+  <si>
+    <t>C4H6N4O3</t>
+  </si>
+  <si>
+    <t>r_1815</t>
+  </si>
+  <si>
+    <t>glyoxylate exchange</t>
+  </si>
+  <si>
+    <t>C2HO3</t>
+  </si>
+  <si>
+    <t>r_1793</t>
+  </si>
+  <si>
+    <t>formate exchange</t>
+  </si>
+  <si>
+    <t>CHO2</t>
   </si>
 </sst>
 </file>
@@ -357,7 +1389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,6 +1409,1742 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>12.67447048325741</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>12.6744704832574</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>11.20743906448129</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>11.20743906448129</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>9.740407645705165</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>8.273376226929043</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>7.99492853097535</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>7.035204066985115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>6.806344808152914</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>6.658379049380484</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>5.339313389376795</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>5.311151871386055</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>5.311151871386054</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>5.311151871386053</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>5.311151871386048</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <v>5.311151871386046</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18">
+        <v>5.160875146408523</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19">
+        <v>3.897654979271968</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20">
+        <v>3.600238026949583</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21">
+        <v>3.447028710333464</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22">
+        <v>3.116092942589685</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23">
+        <v>3.11609294258968</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24">
+        <v>2.960646934982751</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25">
+        <v>2.960646934982749</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26">
+        <v>2.805752907010263</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27">
+        <v>2.775650835445925</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28">
+        <v>2.775650835445925</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29">
+        <v>2.775650835445923</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30">
+        <v>2.775650835445923</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31">
+        <v>2.775650835445919</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32">
+        <v>2.757773241036769</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33">
+        <v>2.724053349155391</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34">
+        <v>2.673987978567452</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35">
+        <v>2.673987978567451</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36">
+        <v>2.67398797856745</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37">
+        <v>2.67398797856745</v>
+      </c>
+      <c r="C37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38">
+        <v>2.660003326686191</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39">
+        <v>2.627375211796761</v>
+      </c>
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40">
+        <v>2.627375211796759</v>
+      </c>
+      <c r="C40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41">
+        <v>2.627375211796759</v>
+      </c>
+      <c r="C41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42">
+        <v>2.627375211796759</v>
+      </c>
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43">
+        <v>2.627375211796758</v>
+      </c>
+      <c r="C43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44">
+        <v>2.551250006680716</v>
+      </c>
+      <c r="C44" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45">
+        <v>2.40766958219395</v>
+      </c>
+      <c r="C45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46">
+        <v>2.374169822221665</v>
+      </c>
+      <c r="C46" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47">
+        <v>2.374169822221665</v>
+      </c>
+      <c r="C47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48">
+        <v>2.357828707539693</v>
+      </c>
+      <c r="C48" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49">
+        <v>2.32684917791551</v>
+      </c>
+      <c r="C49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50">
+        <v>2.32684917791551</v>
+      </c>
+      <c r="C50" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51">
+        <v>2.32684917791551</v>
+      </c>
+      <c r="C51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52">
+        <v>2.32684917791551</v>
+      </c>
+      <c r="C52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53">
+        <v>2.326849177915509</v>
+      </c>
+      <c r="C53" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>146</v>
+      </c>
+      <c r="B54">
+        <v>2.326849177915509</v>
+      </c>
+      <c r="C54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55">
+        <v>2.326849177915509</v>
+      </c>
+      <c r="C55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>151</v>
+      </c>
+      <c r="B56">
+        <v>2.326849177915509</v>
+      </c>
+      <c r="C56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57">
+        <v>2.326849177915509</v>
+      </c>
+      <c r="C57" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58">
+        <v>2.326849177915509</v>
+      </c>
+      <c r="C58" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59">
+        <v>2.326849177915509</v>
+      </c>
+      <c r="C59" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>161</v>
+      </c>
+      <c r="B60">
+        <v>2.326849177915508</v>
+      </c>
+      <c r="C60" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61">
+        <v>2.258992829457045</v>
+      </c>
+      <c r="C61" t="s">
+        <v>165</v>
+      </c>
+      <c r="D61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>166</v>
+      </c>
+      <c r="B62">
+        <v>2.226691868635904</v>
+      </c>
+      <c r="C62" t="s">
+        <v>167</v>
+      </c>
+      <c r="D62" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>169</v>
+      </c>
+      <c r="B63">
+        <v>2.2266918686359</v>
+      </c>
+      <c r="C63" t="s">
+        <v>170</v>
+      </c>
+      <c r="D63" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>172</v>
+      </c>
+      <c r="B64">
+        <v>2.13386660780441</v>
+      </c>
+      <c r="C64" t="s">
+        <v>173</v>
+      </c>
+      <c r="D64" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>174</v>
+      </c>
+      <c r="B65">
+        <v>2.133866607804403</v>
+      </c>
+      <c r="C65" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>176</v>
+      </c>
+      <c r="B66">
+        <v>2.035030729721762</v>
+      </c>
+      <c r="C66" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>178</v>
+      </c>
+      <c r="B67">
+        <v>1.987883384281312</v>
+      </c>
+      <c r="C67" t="s">
+        <v>179</v>
+      </c>
+      <c r="D67" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>181</v>
+      </c>
+      <c r="B68">
+        <v>1.987883384281311</v>
+      </c>
+      <c r="C68" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>184</v>
+      </c>
+      <c r="B69">
+        <v>1.94762722935669</v>
+      </c>
+      <c r="C69" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70">
+        <v>1.880561721582566</v>
+      </c>
+      <c r="C70" t="s">
+        <v>188</v>
+      </c>
+      <c r="D70" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>190</v>
+      </c>
+      <c r="B71">
+        <v>1.880561721582561</v>
+      </c>
+      <c r="C71" t="s">
+        <v>191</v>
+      </c>
+      <c r="D71" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>193</v>
+      </c>
+      <c r="B72">
+        <v>1.841199654360254</v>
+      </c>
+      <c r="C72" t="s">
+        <v>194</v>
+      </c>
+      <c r="D72" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>196</v>
+      </c>
+      <c r="B73">
+        <v>1.837269259840873</v>
+      </c>
+      <c r="C73" t="s">
+        <v>197</v>
+      </c>
+      <c r="D73" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>199</v>
+      </c>
+      <c r="B74">
+        <v>1.757917678989883</v>
+      </c>
+      <c r="C74" t="s">
+        <v>200</v>
+      </c>
+      <c r="D74" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>202</v>
+      </c>
+      <c r="B75">
+        <v>1.751918821894335</v>
+      </c>
+      <c r="C75" t="s">
+        <v>203</v>
+      </c>
+      <c r="D75" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>205</v>
+      </c>
+      <c r="B76">
+        <v>1.751918821894335</v>
+      </c>
+      <c r="C76" t="s">
+        <v>206</v>
+      </c>
+      <c r="D76" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>207</v>
+      </c>
+      <c r="B77">
+        <v>1.739425127506042</v>
+      </c>
+      <c r="C77" t="s">
+        <v>208</v>
+      </c>
+      <c r="D77" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>210</v>
+      </c>
+      <c r="B78">
+        <v>1.701692283751322</v>
+      </c>
+      <c r="C78" t="s">
+        <v>211</v>
+      </c>
+      <c r="D78" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>213</v>
+      </c>
+      <c r="B79">
+        <v>1.616049596917722</v>
+      </c>
+      <c r="C79" t="s">
+        <v>214</v>
+      </c>
+      <c r="D79" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>216</v>
+      </c>
+      <c r="B80">
+        <v>1.588502023162362</v>
+      </c>
+      <c r="C80" t="s">
+        <v>217</v>
+      </c>
+      <c r="D80" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>219</v>
+      </c>
+      <c r="B81">
+        <v>1.588502023162361</v>
+      </c>
+      <c r="C81" t="s">
+        <v>220</v>
+      </c>
+      <c r="D81" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>222</v>
+      </c>
+      <c r="B82">
+        <v>1.554143384226369</v>
+      </c>
+      <c r="C82" t="s">
+        <v>223</v>
+      </c>
+      <c r="D82" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>225</v>
+      </c>
+      <c r="B83">
+        <v>1.548871473143592</v>
+      </c>
+      <c r="C83" t="s">
+        <v>226</v>
+      </c>
+      <c r="D83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>228</v>
+      </c>
+      <c r="B84">
+        <v>1.548871473143592</v>
+      </c>
+      <c r="C84" t="s">
+        <v>229</v>
+      </c>
+      <c r="D84" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>230</v>
+      </c>
+      <c r="B85">
+        <v>1.531479604343477</v>
+      </c>
+      <c r="C85" t="s">
+        <v>231</v>
+      </c>
+      <c r="D85" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>233</v>
+      </c>
+      <c r="B86">
+        <v>1.504075329195663</v>
+      </c>
+      <c r="C86" t="s">
+        <v>234</v>
+      </c>
+      <c r="D86" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>236</v>
+      </c>
+      <c r="B87">
+        <v>1.487037033089091</v>
+      </c>
+      <c r="C87" t="s">
+        <v>237</v>
+      </c>
+      <c r="D87" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>239</v>
+      </c>
+      <c r="B88">
+        <v>1.449053727104333</v>
+      </c>
+      <c r="C88" t="s">
+        <v>240</v>
+      </c>
+      <c r="D88" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>241</v>
+      </c>
+      <c r="B89">
+        <v>1.427638681483493</v>
+      </c>
+      <c r="C89" t="s">
+        <v>242</v>
+      </c>
+      <c r="D89" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>244</v>
+      </c>
+      <c r="B90">
+        <v>1.372858709242363</v>
+      </c>
+      <c r="C90" t="s">
+        <v>245</v>
+      </c>
+      <c r="D90" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>247</v>
+      </c>
+      <c r="B91">
+        <v>1.318308911821706</v>
+      </c>
+      <c r="C91" t="s">
+        <v>248</v>
+      </c>
+      <c r="D91" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>250</v>
+      </c>
+      <c r="B92">
+        <v>1.307061888112671</v>
+      </c>
+      <c r="C92" t="s">
+        <v>251</v>
+      </c>
+      <c r="D92" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>253</v>
+      </c>
+      <c r="B93">
+        <v>1.231632501341402</v>
+      </c>
+      <c r="C93" t="s">
+        <v>254</v>
+      </c>
+      <c r="D93" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>256</v>
+      </c>
+      <c r="B94">
+        <v>1.231632501341402</v>
+      </c>
+      <c r="C94" t="s">
+        <v>257</v>
+      </c>
+      <c r="D94" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>259</v>
+      </c>
+      <c r="B95">
+        <v>1.231632501341401</v>
+      </c>
+      <c r="C95" t="s">
+        <v>260</v>
+      </c>
+      <c r="D95" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>262</v>
+      </c>
+      <c r="B96">
+        <v>1.231632501341401</v>
+      </c>
+      <c r="C96" t="s">
+        <v>263</v>
+      </c>
+      <c r="D96" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>265</v>
+      </c>
+      <c r="B97">
+        <v>1.221796905260089</v>
+      </c>
+      <c r="C97" t="s">
+        <v>266</v>
+      </c>
+      <c r="D97" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>268</v>
+      </c>
+      <c r="B98">
+        <v>1.154555077209633</v>
+      </c>
+      <c r="C98" t="s">
+        <v>269</v>
+      </c>
+      <c r="D98" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>271</v>
+      </c>
+      <c r="B99">
+        <v>1.154555077209629</v>
+      </c>
+      <c r="C99" t="s">
+        <v>272</v>
+      </c>
+      <c r="D99" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>274</v>
+      </c>
+      <c r="B100">
+        <v>1.136926133398438</v>
+      </c>
+      <c r="C100" t="s">
+        <v>275</v>
+      </c>
+      <c r="D100" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>277</v>
+      </c>
+      <c r="B101">
+        <v>1.136926133398437</v>
+      </c>
+      <c r="C101" t="s">
+        <v>278</v>
+      </c>
+      <c r="D101" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>280</v>
+      </c>
+      <c r="B102">
+        <v>1.136926133398435</v>
+      </c>
+      <c r="C102" t="s">
+        <v>281</v>
+      </c>
+      <c r="D102" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>282</v>
+      </c>
+      <c r="B103">
+        <v>1.107643926796037</v>
+      </c>
+      <c r="C103" t="s">
+        <v>283</v>
+      </c>
+      <c r="D103" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>285</v>
+      </c>
+      <c r="B104">
+        <v>1.101172351673085</v>
+      </c>
+      <c r="C104" t="s">
+        <v>286</v>
+      </c>
+      <c r="D104" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>288</v>
+      </c>
+      <c r="B105">
+        <v>1.099970465672275</v>
+      </c>
+      <c r="C105" t="s">
+        <v>289</v>
+      </c>
+      <c r="D105" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>291</v>
+      </c>
+      <c r="B106">
+        <v>1.099970465672272</v>
+      </c>
+      <c r="C106" t="s">
+        <v>292</v>
+      </c>
+      <c r="D106" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>293</v>
+      </c>
+      <c r="B107">
+        <v>1.067949240088176</v>
+      </c>
+      <c r="C107" t="s">
+        <v>294</v>
+      </c>
+      <c r="D107" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>296</v>
+      </c>
+      <c r="B108">
+        <v>0.9908012425975553</v>
+      </c>
+      <c r="C108" t="s">
+        <v>297</v>
+      </c>
+      <c r="D108" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>299</v>
+      </c>
+      <c r="B109">
+        <v>0.9908012425975543</v>
+      </c>
+      <c r="C109" t="s">
+        <v>300</v>
+      </c>
+      <c r="D109" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>302</v>
+      </c>
+      <c r="B110">
+        <v>0.9908012425975543</v>
+      </c>
+      <c r="C110" t="s">
+        <v>303</v>
+      </c>
+      <c r="D110" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>305</v>
+      </c>
+      <c r="B111">
+        <v>0.9908012425975541</v>
+      </c>
+      <c r="C111" t="s">
+        <v>306</v>
+      </c>
+      <c r="D111" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>307</v>
+      </c>
+      <c r="B112">
+        <v>0.9797638874972748</v>
+      </c>
+      <c r="C112" t="s">
+        <v>308</v>
+      </c>
+      <c r="D112" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>309</v>
+      </c>
+      <c r="B113">
+        <v>0.937291946539295</v>
+      </c>
+      <c r="C113" t="s">
+        <v>310</v>
+      </c>
+      <c r="D113" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>312</v>
+      </c>
+      <c r="B114">
+        <v>0.9252848677949471</v>
+      </c>
+      <c r="C114" t="s">
+        <v>313</v>
+      </c>
+      <c r="D114" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>315</v>
+      </c>
+      <c r="B115">
+        <v>0.9252848677949447</v>
+      </c>
+      <c r="C115" t="s">
+        <v>316</v>
+      </c>
+      <c r="D115" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>318</v>
+      </c>
+      <c r="B116">
+        <v>0.8200947168618864</v>
+      </c>
+      <c r="C116" t="s">
+        <v>319</v>
+      </c>
+      <c r="D116" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>321</v>
+      </c>
+      <c r="B117">
+        <v>0.7217068685636181</v>
+      </c>
+      <c r="C117" t="s">
+        <v>322</v>
+      </c>
+      <c r="D117" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>324</v>
+      </c>
+      <c r="B118">
+        <v>0.6681246760732279</v>
+      </c>
+      <c r="C118" t="s">
+        <v>325</v>
+      </c>
+      <c r="D118" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>327</v>
+      </c>
+      <c r="B119">
+        <v>0.65068228445487</v>
+      </c>
+      <c r="C119" t="s">
+        <v>328</v>
+      </c>
+      <c r="D119" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>330</v>
+      </c>
+      <c r="B120">
+        <v>0.5943082823309266</v>
+      </c>
+      <c r="C120" t="s">
+        <v>331</v>
+      </c>
+      <c r="D120" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>333</v>
+      </c>
+      <c r="B121">
+        <v>0.4927980981820969</v>
+      </c>
+      <c r="C121" t="s">
+        <v>334</v>
+      </c>
+      <c r="D121" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>336</v>
+      </c>
+      <c r="B122">
+        <v>0.3356996725354496</v>
+      </c>
+      <c r="C122" t="s">
+        <v>337</v>
+      </c>
+      <c r="D122" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>339</v>
+      </c>
+      <c r="B123">
+        <v>0.3356996725354495</v>
+      </c>
+      <c r="C123" t="s">
+        <v>340</v>
+      </c>
+      <c r="D123" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>342</v>
+      </c>
+      <c r="B124">
+        <v>0.3356996725354468</v>
+      </c>
+      <c r="C124" t="s">
+        <v>343</v>
+      </c>
+      <c r="D124" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>345</v>
+      </c>
+      <c r="B125">
+        <v>0.1056744032621225</v>
+      </c>
+      <c r="C125" t="s">
+        <v>346</v>
+      </c>
+      <c r="D125" t="s">
+        <v>347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
